--- a/Database/Data_20150722/Class_Course.xlsx
+++ b/Database/Data_20150722/Class_Course.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="149">
   <si>
     <t>IS10801</t>
   </si>
@@ -316,9 +316,6 @@
     <t>IAO101</t>
   </si>
   <si>
-    <t>JPN1001 &amp; JPN1002</t>
-  </si>
-  <si>
     <t>ENM301</t>
   </si>
   <si>
@@ -448,183 +445,6 @@
     <t>JPS122</t>
   </si>
   <si>
-    <t>FIN0801&amp;MKT0801</t>
-  </si>
-  <si>
-    <t>ISC302</t>
-  </si>
-  <si>
-    <t>BUE201</t>
-  </si>
-  <si>
-    <t>COB0801</t>
-  </si>
-  <si>
-    <t>COF0801</t>
-  </si>
-  <si>
-    <t>MKT0802</t>
-  </si>
-  <si>
-    <t>ITA202</t>
-  </si>
-  <si>
-    <t>GDP101</t>
-  </si>
-  <si>
-    <t>SSN301</t>
-  </si>
-  <si>
-    <t>MKT305</t>
-  </si>
-  <si>
-    <t>COF0802&amp;COB0802&amp;FIN0802</t>
-  </si>
-  <si>
-    <t>RMB301</t>
-  </si>
-  <si>
-    <t>BKG302</t>
-  </si>
-  <si>
-    <t>FIN0803</t>
-  </si>
-  <si>
-    <t>ETR401</t>
-  </si>
-  <si>
-    <t>LAW101</t>
-  </si>
-  <si>
-    <t>SSM201</t>
-  </si>
-  <si>
-    <t>MKT0803</t>
-  </si>
-  <si>
-    <t>MKT304</t>
-  </si>
-  <si>
-    <t>COF0803</t>
-  </si>
-  <si>
-    <t>ACC302</t>
-  </si>
-  <si>
-    <t>FIN402</t>
-  </si>
-  <si>
-    <t>COF0804</t>
-  </si>
-  <si>
-    <t>MKT0902</t>
-  </si>
-  <si>
-    <t>ENM401</t>
-  </si>
-  <si>
-    <t>MKT201</t>
-  </si>
-  <si>
-    <t>CHN132</t>
-  </si>
-  <si>
-    <t>PRE201</t>
-  </si>
-  <si>
-    <t>MKT202</t>
-  </si>
-  <si>
-    <t>FIN0902</t>
-  </si>
-  <si>
-    <t>FIN303</t>
-  </si>
-  <si>
-    <t>ACC305</t>
-  </si>
-  <si>
-    <t>COF0902</t>
-  </si>
-  <si>
-    <t>FIN301</t>
-  </si>
-  <si>
-    <t>MKT0903</t>
-  </si>
-  <si>
-    <t>MAS201</t>
-  </si>
-  <si>
-    <t>CHN122</t>
-  </si>
-  <si>
-    <t>FIN0903</t>
-  </si>
-  <si>
-    <t>COF0903&amp;FIN0903</t>
-  </si>
-  <si>
-    <t>BA1001</t>
-  </si>
-  <si>
-    <t>MKT101</t>
-  </si>
-  <si>
-    <t>CHN111</t>
-  </si>
-  <si>
-    <t>ENM201</t>
-  </si>
-  <si>
-    <t>FIN201</t>
-  </si>
-  <si>
-    <t>FIN202</t>
-  </si>
-  <si>
-    <t>FB1001</t>
-  </si>
-  <si>
-    <t>BA1002&amp;FB1002</t>
-  </si>
-  <si>
-    <t>ENL112</t>
-  </si>
-  <si>
-    <t>ECO121</t>
-  </si>
-  <si>
-    <t>MAC102</t>
-  </si>
-  <si>
-    <t>OBE101</t>
-  </si>
-  <si>
-    <t>IBA1002</t>
-  </si>
-  <si>
-    <t>BA1003</t>
-  </si>
-  <si>
-    <t>ENL111</t>
-  </si>
-  <si>
-    <t>CSI102</t>
-  </si>
-  <si>
-    <t>ECO111</t>
-  </si>
-  <si>
-    <t>MGT101</t>
-  </si>
-  <si>
-    <t>FB1003</t>
-  </si>
-  <si>
-    <t>IBA1003</t>
-  </si>
-  <si>
     <t xml:space="preserve">Class </t>
   </si>
   <si>
@@ -635,6 +455,12 @@
   </si>
   <si>
     <t>Semester Long</t>
+  </si>
+  <si>
+    <t>JPN1002</t>
+  </si>
+  <si>
+    <t>JPN1001</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:XFD161"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,13 +844,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,8 +860,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>205</v>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,8 +871,8 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>205</v>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,8 +882,8 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>205</v>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,8 +893,8 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>205</v>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,8 +904,8 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>205</v>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,8 +915,8 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>205</v>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,8 +926,8 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>205</v>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,8 +937,8 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>205</v>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,8 +948,8 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>205</v>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,8 +970,8 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>205</v>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,8 +992,8 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>205</v>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,8 +1003,8 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>205</v>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,8 +1014,8 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>205</v>
+      <c r="C16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,8 +1025,8 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>205</v>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,8 +1036,8 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>205</v>
+      <c r="C18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,8 +1047,8 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>205</v>
+      <c r="C19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,8 +1058,8 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>205</v>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,8 +1069,8 @@
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>205</v>
+      <c r="C21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,8 +1080,8 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
-        <v>205</v>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,8 +1091,8 @@
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>205</v>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,8 +1102,8 @@
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
-        <v>205</v>
+      <c r="C24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,8 +1113,8 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
-        <v>205</v>
+      <c r="C25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,8 +1135,8 @@
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>205</v>
+      <c r="C27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,8 +1146,8 @@
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
-        <v>205</v>
+      <c r="C28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,8 +1157,8 @@
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" t="s">
-        <v>205</v>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,8 +1168,8 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
-        <v>205</v>
+      <c r="C30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,8 +1179,8 @@
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
-        <v>205</v>
+      <c r="C31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,8 +1190,8 @@
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
-        <v>205</v>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,8 +1201,8 @@
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
-        <v>205</v>
+      <c r="C33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,8 +1212,8 @@
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
-        <v>205</v>
+      <c r="C34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,8 +1223,8 @@
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" t="s">
-        <v>205</v>
+      <c r="C35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,8 +1234,8 @@
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
-        <v>205</v>
+      <c r="C36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,8 +1245,8 @@
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
-        <v>205</v>
+      <c r="C37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,8 +1256,8 @@
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="s">
-        <v>205</v>
+      <c r="C38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,8 +1267,8 @@
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s">
-        <v>205</v>
+      <c r="C39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,8 +1278,8 @@
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C40" t="s">
-        <v>205</v>
+      <c r="C40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,8 +1289,8 @@
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" t="s">
-        <v>205</v>
+      <c r="C41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,8 +1300,8 @@
       <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
-        <v>205</v>
+      <c r="C42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,8 +1311,8 @@
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C43" t="s">
-        <v>205</v>
+      <c r="C43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,8 +1322,8 @@
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C44" t="s">
-        <v>205</v>
+      <c r="C44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,8 +1333,8 @@
       <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C45" t="s">
-        <v>205</v>
+      <c r="C45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,8 +1344,8 @@
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
-        <v>205</v>
+      <c r="C46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,8 +1355,8 @@
       <c r="B47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C47" t="s">
-        <v>205</v>
+      <c r="C47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,8 +1366,8 @@
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C48" t="s">
-        <v>205</v>
+      <c r="C48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,8 +1377,8 @@
       <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C49" t="s">
-        <v>205</v>
+      <c r="C49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,8 +1388,8 @@
       <c r="B50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C50" t="s">
-        <v>205</v>
+      <c r="C50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,8 +1399,8 @@
       <c r="B51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C51" t="s">
-        <v>205</v>
+      <c r="C51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,8 +1410,8 @@
       <c r="B52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C52" t="s">
-        <v>205</v>
+      <c r="C52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,8 +1421,8 @@
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C53" t="s">
-        <v>205</v>
+      <c r="C53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,8 +1432,8 @@
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" t="s">
-        <v>205</v>
+      <c r="C54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,8 +1443,8 @@
       <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C55" t="s">
-        <v>205</v>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,8 +1454,8 @@
       <c r="B56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C56" t="s">
-        <v>205</v>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,8 +1465,8 @@
       <c r="B57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="s">
-        <v>205</v>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,8 +1476,8 @@
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C58" t="s">
-        <v>205</v>
+      <c r="C58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,8 +1487,8 @@
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" t="s">
-        <v>205</v>
+      <c r="C59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,8 +1498,8 @@
       <c r="B60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C60" t="s">
-        <v>205</v>
+      <c r="C60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,8 +1509,8 @@
       <c r="B61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C61" t="s">
-        <v>205</v>
+      <c r="C61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,8 +1520,8 @@
       <c r="B62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C62" t="s">
-        <v>205</v>
+      <c r="C62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,8 +1531,8 @@
       <c r="B63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C63" t="s">
-        <v>205</v>
+      <c r="C63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,8 +1542,8 @@
       <c r="B64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C64" t="s">
-        <v>205</v>
+      <c r="C64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,8 +1553,8 @@
       <c r="B65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C65" t="s">
-        <v>205</v>
+      <c r="C65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,8 +1564,8 @@
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" t="s">
-        <v>205</v>
+      <c r="C66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,8 +1575,8 @@
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C67" t="s">
-        <v>205</v>
+      <c r="C67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,8 +1586,8 @@
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C68" t="s">
-        <v>205</v>
+      <c r="C68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,8 +1597,8 @@
       <c r="B69" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C69" t="s">
-        <v>205</v>
+      <c r="C69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,8 +1608,8 @@
       <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C70" t="s">
-        <v>205</v>
+      <c r="C70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,8 +1619,8 @@
       <c r="B71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C71" t="s">
-        <v>205</v>
+      <c r="C71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,8 +1630,8 @@
       <c r="B72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C72" t="s">
-        <v>205</v>
+      <c r="C72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,8 +1641,8 @@
       <c r="B73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C73" t="s">
-        <v>205</v>
+      <c r="C73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,8 +1652,8 @@
       <c r="B74" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C74" t="s">
-        <v>205</v>
+      <c r="C74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,8 +1663,8 @@
       <c r="B75" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C75" t="s">
-        <v>205</v>
+      <c r="C75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,8 +1674,8 @@
       <c r="B76" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C76" t="s">
-        <v>205</v>
+      <c r="C76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,8 +1685,8 @@
       <c r="B77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C77" t="s">
-        <v>205</v>
+      <c r="C77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,8 +1696,8 @@
       <c r="B78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C78" t="s">
-        <v>205</v>
+      <c r="C78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,8 +1707,8 @@
       <c r="B79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C79" t="s">
-        <v>205</v>
+      <c r="C79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,8 +1718,8 @@
       <c r="B80" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C80" t="s">
-        <v>205</v>
+      <c r="C80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,8 +1729,8 @@
       <c r="B81" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C81" t="s">
-        <v>205</v>
+      <c r="C81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,8 +1740,8 @@
       <c r="B82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C82" t="s">
-        <v>205</v>
+      <c r="C82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,8 +1751,8 @@
       <c r="B83" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C83" t="s">
-        <v>205</v>
+      <c r="C83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,8 +1762,8 @@
       <c r="B84" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C84" t="s">
-        <v>205</v>
+      <c r="C84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,8 +1773,8 @@
       <c r="B85" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C85" t="s">
-        <v>205</v>
+      <c r="C85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,8 +1784,8 @@
       <c r="B86" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C86" t="s">
-        <v>205</v>
+      <c r="C86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,8 +1795,8 @@
       <c r="B87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C87" t="s">
-        <v>205</v>
+      <c r="C87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,8 +1806,8 @@
       <c r="B88" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C88" t="s">
-        <v>205</v>
+      <c r="C88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,8 +1817,8 @@
       <c r="B89" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C89" t="s">
-        <v>205</v>
+      <c r="C89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,8 +1828,8 @@
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C90" t="s">
-        <v>205</v>
+      <c r="C90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,8 +1839,8 @@
       <c r="B91" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C91" t="s">
-        <v>205</v>
+      <c r="C91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,7 +1851,7 @@
         <v>63</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,8 +1861,8 @@
       <c r="B93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C93" t="s">
-        <v>205</v>
+      <c r="C93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,8 +1872,8 @@
       <c r="B94" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C94" t="s">
-        <v>205</v>
+      <c r="C94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,8 +1883,8 @@
       <c r="B95" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C95" t="s">
-        <v>205</v>
+      <c r="C95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,8 +1894,8 @@
       <c r="B96" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C96" t="s">
-        <v>205</v>
+      <c r="C96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,8 +1905,8 @@
       <c r="B97" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C97" t="s">
-        <v>205</v>
+      <c r="C97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2090,8 +1916,8 @@
       <c r="B98" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C98" t="s">
-        <v>205</v>
+      <c r="C98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,8 +1927,8 @@
       <c r="B99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C99" t="s">
-        <v>205</v>
+      <c r="C99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,8 +1938,8 @@
       <c r="B100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C100" t="s">
-        <v>205</v>
+      <c r="C100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,8 +1949,8 @@
       <c r="B101" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C101" t="s">
-        <v>205</v>
+      <c r="C101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,8 +1960,8 @@
       <c r="B102" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C102" t="s">
-        <v>205</v>
+      <c r="C102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,8 +1971,8 @@
       <c r="B103" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C103" t="s">
-        <v>205</v>
+      <c r="C103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,8 +1982,8 @@
       <c r="B104" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C104" t="s">
-        <v>205</v>
+      <c r="C104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,8 +1993,8 @@
       <c r="B105" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C105" t="s">
-        <v>205</v>
+      <c r="C105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,8 +2004,8 @@
       <c r="B106" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C106" t="s">
-        <v>205</v>
+      <c r="C106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,8 +2015,8 @@
       <c r="B107" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C107" t="s">
-        <v>205</v>
+      <c r="C107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,8 +2026,8 @@
       <c r="B108" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C108" t="s">
-        <v>205</v>
+      <c r="C108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,8 +2037,8 @@
       <c r="B109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C109" t="s">
-        <v>205</v>
+      <c r="C109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,8 +2048,8 @@
       <c r="B110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C110" t="s">
-        <v>205</v>
+      <c r="C110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,8 +2059,8 @@
       <c r="B111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C111" t="s">
-        <v>205</v>
+      <c r="C111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,8 +2070,8 @@
       <c r="B112" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C112" t="s">
-        <v>205</v>
+      <c r="C112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,8 +2081,8 @@
       <c r="B113" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C113" t="s">
-        <v>205</v>
+      <c r="C113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2266,8 +2092,8 @@
       <c r="B114" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C114" t="s">
-        <v>205</v>
+      <c r="C114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,8 +2103,8 @@
       <c r="B115" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C115" t="s">
-        <v>205</v>
+      <c r="C115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,8 +2114,8 @@
       <c r="B116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C116" t="s">
-        <v>205</v>
+      <c r="C116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,8 +2125,8 @@
       <c r="B117" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C117" t="s">
-        <v>205</v>
+      <c r="C117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,8 +2136,8 @@
       <c r="B118" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C118" t="s">
-        <v>205</v>
+      <c r="C118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,8 +2147,8 @@
       <c r="B119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C119" t="s">
-        <v>205</v>
+      <c r="C119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2332,8 +2158,8 @@
       <c r="B120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C120" t="s">
-        <v>205</v>
+      <c r="C120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,8 +2169,8 @@
       <c r="B121" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C121" t="s">
-        <v>205</v>
+      <c r="C121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,8 +2180,8 @@
       <c r="B122" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C122" t="s">
-        <v>205</v>
+      <c r="C122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2365,8 +2191,8 @@
       <c r="B123" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C123" t="s">
-        <v>205</v>
+      <c r="C123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,8 +2202,8 @@
       <c r="B124" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C124" t="s">
-        <v>205</v>
+      <c r="C124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,8 +2213,8 @@
       <c r="B125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C125" t="s">
-        <v>205</v>
+      <c r="C125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,8 +2224,8 @@
       <c r="B126" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C126" t="s">
-        <v>205</v>
+      <c r="C126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,8 +2235,8 @@
       <c r="B127" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C127" t="s">
-        <v>205</v>
+      <c r="C127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,8 +2246,8 @@
       <c r="B128" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C128" t="s">
-        <v>205</v>
+      <c r="C128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,8 +2257,8 @@
       <c r="B129" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C129" t="s">
-        <v>205</v>
+      <c r="C129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,8 +2268,8 @@
       <c r="B130" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C130" t="s">
-        <v>205</v>
+      <c r="C130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,8 +2279,8 @@
       <c r="B131" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C131" t="s">
-        <v>205</v>
+      <c r="C131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,8 +2290,8 @@
       <c r="B132" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C132" t="s">
-        <v>205</v>
+      <c r="C132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,8 +2301,8 @@
       <c r="B133" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C133" t="s">
-        <v>205</v>
+      <c r="C133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,8 +2323,8 @@
       <c r="B135" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C135" t="s">
-        <v>205</v>
+      <c r="C135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,8 +2334,8 @@
       <c r="B136" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C136" t="s">
-        <v>205</v>
+      <c r="C136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,8 +2345,8 @@
       <c r="B137" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C137" t="s">
-        <v>205</v>
+      <c r="C137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,8 +2356,8 @@
       <c r="B138" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C138" t="s">
-        <v>205</v>
+      <c r="C138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,8 +2367,8 @@
       <c r="B139" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C139" t="s">
-        <v>205</v>
+      <c r="C139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,8 +2378,8 @@
       <c r="B140" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C140" t="s">
-        <v>205</v>
+      <c r="C140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,8 +2389,8 @@
       <c r="B141" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C141" t="s">
-        <v>205</v>
+      <c r="C141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,8 +2400,8 @@
       <c r="B142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C142" t="s">
-        <v>205</v>
+      <c r="C142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,8 +2411,8 @@
       <c r="B143" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C143" t="s">
-        <v>205</v>
+      <c r="C143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,8 +2422,8 @@
       <c r="B144" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C144" t="s">
-        <v>205</v>
+      <c r="C144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2607,8 +2433,8 @@
       <c r="B145" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C145" t="s">
-        <v>205</v>
+      <c r="C145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2618,8 +2444,8 @@
       <c r="B146" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C146" t="s">
-        <v>205</v>
+      <c r="C146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,8 +2455,8 @@
       <c r="B147" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C147" t="s">
-        <v>205</v>
+      <c r="C147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,8 +2466,8 @@
       <c r="B148" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C148" t="s">
-        <v>205</v>
+      <c r="C148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,8 +2477,8 @@
       <c r="B149" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C149" t="s">
-        <v>205</v>
+      <c r="C149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2662,8 +2488,8 @@
       <c r="B150" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C150" t="s">
-        <v>205</v>
+      <c r="C150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2673,8 +2499,8 @@
       <c r="B151" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C151" t="s">
-        <v>205</v>
+      <c r="C151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2684,8 +2510,8 @@
       <c r="B152" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C152" t="s">
-        <v>205</v>
+      <c r="C152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,8 +2521,8 @@
       <c r="B153" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C153" t="s">
-        <v>205</v>
+      <c r="C153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2706,8 +2532,8 @@
       <c r="B154" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C154" t="s">
-        <v>205</v>
+      <c r="C154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2717,8 +2543,8 @@
       <c r="B155" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C155" t="s">
-        <v>205</v>
+      <c r="C155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,8 +2554,8 @@
       <c r="B156" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C156" t="s">
-        <v>205</v>
+      <c r="C156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,1889 +2565,1009 @@
       <c r="B157" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C157" t="s">
-        <v>205</v>
+      <c r="C157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C158" t="s">
-        <v>205</v>
+      <c r="C158">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C159" t="s">
-        <v>205</v>
+        <v>101</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C160" t="s">
-        <v>205</v>
+        <v>102</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C161" t="s">
-        <v>205</v>
+        <v>100</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C162" t="s">
-        <v>205</v>
+        <v>101</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C163" t="s">
-        <v>205</v>
+        <v>102</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C164" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C165" t="s">
-        <v>205</v>
+      <c r="C165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C166" t="s">
-        <v>205</v>
+        <v>105</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C167" t="s">
-        <v>205</v>
+        <v>106</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" t="s">
-        <v>205</v>
+        <v>107</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C169" t="s">
-        <v>205</v>
+        <v>107</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C170" t="s">
-        <v>205</v>
+        <v>106</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C171" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C172" t="s">
-        <v>205</v>
+        <v>105</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C173" t="s">
-        <v>205</v>
+        <v>104</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C174" t="s">
-        <v>205</v>
+        <v>104</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C175" t="s">
-        <v>205</v>
+        <v>105</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C176" t="s">
-        <v>205</v>
+        <v>107</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C177" t="s">
-        <v>205</v>
+        <v>106</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C178" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C179" t="s">
-        <v>205</v>
+      <c r="C179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C180" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C181" t="s">
-        <v>205</v>
+      <c r="C181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C182" t="s">
-        <v>205</v>
+        <v>104</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C183" t="s">
-        <v>205</v>
+        <v>106</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C184" t="s">
-        <v>205</v>
+      <c r="C184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C185" t="s">
-        <v>205</v>
+        <v>104</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C186" t="s">
-        <v>205</v>
+      <c r="C186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C187" t="s">
-        <v>205</v>
+        <v>105</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C188" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C189" t="s">
-        <v>205</v>
+        <v>107</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C190" t="s">
-        <v>205</v>
+      <c r="C190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C191" t="s">
-        <v>205</v>
+        <v>115</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C192" t="s">
-        <v>205</v>
+        <v>116</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C193" t="s">
-        <v>205</v>
+        <v>117</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C194" t="s">
-        <v>205</v>
+        <v>118</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C195" t="s">
-        <v>205</v>
+      <c r="C195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C196" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C197" t="s">
-        <v>205</v>
+      <c r="C197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C198" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C199" t="s">
-        <v>205</v>
+      <c r="C199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C200" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C201" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C202" t="s">
-        <v>205</v>
+        <v>122</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C203" t="s">
-        <v>205</v>
+      <c r="C203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C204" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C205" t="s">
-        <v>205</v>
+      <c r="C205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C206" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C207" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C208" t="s">
-        <v>205</v>
+      <c r="C208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C209" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C210" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C211" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C212" t="s">
-        <v>205</v>
+        <v>122</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C213" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C214" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C215" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C216" t="s">
-        <v>205</v>
+      <c r="C216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C217" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C218" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C219" t="s">
-        <v>205</v>
+        <v>122</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C220" t="s">
-        <v>205</v>
+      <c r="C220">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C221" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C222" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C223" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C224" t="s">
-        <v>205</v>
+      <c r="C224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C225" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C226" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C227" t="s">
-        <v>205</v>
+        <v>122</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C228" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C229" t="s">
-        <v>205</v>
+        <v>130</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C230" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C231" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C232" t="s">
-        <v>205</v>
+        <v>122</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C233" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C234" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C235" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C236" t="s">
-        <v>205</v>
+      <c r="C236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C237" t="s">
-        <v>205</v>
+        <v>123</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C238" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C239" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C240" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C241" t="s">
-        <v>205</v>
+      <c r="C241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C242" t="s">
-        <v>205</v>
+        <v>135</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C243" t="s">
-        <v>205</v>
+        <v>88</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C244" t="s">
-        <v>205</v>
+        <v>136</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C245" t="s">
-        <v>205</v>
+        <v>137</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C246" t="s">
-        <v>205</v>
+        <v>139</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C247" t="s">
-        <v>205</v>
+        <v>140</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C248" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C249" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C250" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C251" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C252" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C253" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C254" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C255" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C256" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C257" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C258" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C259" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C260" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C261" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C262" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C263" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C264" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C265" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C266" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C267" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C268" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C269" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C270" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C271" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C272" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C273" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C274" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C275" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C276" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C277" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C278" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C279" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C280" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C281" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C282" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C283" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C284" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C285" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C286" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C287" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C288" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C289" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C290" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C291" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C292" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C293" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C294" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C295" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C296" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C297" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C298" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C299" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C300" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C301" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C302" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C303" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C304" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C305" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C306" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C307" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C308" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C309" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C310" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C311" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C312" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C313" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C314" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C315" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C316" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C317" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C318" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C319" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C320" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C321" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C322" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C323" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C324" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C325" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C326" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C327" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C328" t="s">
-        <v>205</v>
+        <v>142</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
